--- a/Datos/Database by set/Set with text box/Xlsx sets/RNA Guild Kit Tokens (TGK2).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/RNA Guild Kit Tokens (TGK2).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A33"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,224 +444,63 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bat</t>
+          <t>('Bat', ['Token Creature — Bat', 'Flying', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Token Creature — Bat</t>
+          <t>('Bird', ['Token Creature — Bird', 'Flying', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t>('Cleric', ['Token Creature — Cleric', '{3}{W}{B}{B}, {T}, Sacrifice this creature: Return a card named Deathpact Angel from your graveyard to the battlefield.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>('Dragon', ['Token Creature — Dragon', 'Flying', '6/6'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>('Goblin', ['Token Creature — Goblin', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Token Creature — Bird</t>
+          <t>('Ooze', ['Token Creature — Ooze', '*/*'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t>('Saproling', ['Token Creature — Saproling', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>('Spirit', ['Token Creature — Spirit', 'Flying', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cleric</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Token Creature — Cleric</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>{3}{W}{B}{B}, {T}, Sacrifice this creature: Return a card named Deathpact Angel from your graveyard to the battlefield.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Token Creature — Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>6/6</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Goblin</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Token Creature — Goblin</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Ooze</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Token Creature — Ooze</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>*/*</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Saproling</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Token Creature — Saproling</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Spirit</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Token Creature — Spirit</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Wurm</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Token Creature — Wurm</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>6/6</t>
+          <t>('Wurm', ['Token Creature — Wurm', '6/6'])</t>
         </is>
       </c>
     </row>
